--- a/sampledata/Ru_sample.xlsx
+++ b/sampledata/Ru_sample.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D0750-875E-6E4B-BC3B-3BC0E674D590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F39018E-1A63-2C44-A031-061E522CEC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5080" yWindow="500" windowWidth="20580" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - Ru_cat_1127" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>entry</t>
   </si>
@@ -176,182 +189,194 @@
     <t>C(=O)(C(F)(F)(F))c1ccc(OC)cc1</t>
   </si>
   <si>
+    <t>scheme30</t>
+  </si>
+  <si>
+    <t>tBuOK</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Cl)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Br)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Br)c1cc(C)ccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1OC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)C</t>
+  </si>
+  <si>
+    <t>scheme32</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)CCCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CS1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)CCCC=C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CSC=C1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CS1)C</t>
+  </si>
+  <si>
+    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=CC=C1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=NC=C1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1CC1)C</t>
+  </si>
+  <si>
+    <t>scheme33</t>
+  </si>
+  <si>
+    <t>C(=O)(C1CCCCC1)C</t>
+  </si>
+  <si>
+    <t>scheme34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R)-XylBINAP/(R)-DAIPEN Ru </t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C)C</t>
+  </si>
+  <si>
+    <t>scheme36</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C)NC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C)NC(=O)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>O=C(CNC(C1=CC=CC=C1)=O)c2ccccc2</t>
+  </si>
+  <si>
+    <t>c1ccccc1OCN(C)CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CC(C)(C)OC(=O)N(C)CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
+  </si>
+  <si>
+    <t>scheme37</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>scheme38</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
+  </si>
+  <si>
+    <t>C(=O)(COc1ccccc1)C</t>
+  </si>
+  <si>
+    <t>scheme39</t>
+  </si>
+  <si>
+    <t>C(=O)(C(OC)OC)C</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(OCC)OCC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>scheme40</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/c1ccccc1)C(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/CCCCC)C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C)CC(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C1=C(C)CCCC1(C)(C))C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C1=SC=CC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C=C(C)C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CCCCC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=Cc2c(OC)ccc(OC)c2CC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CCCCCC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=C(C)CCC1)C</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040402008012374?via%3Dihub</t>
+  </si>
+  <si>
+    <t>table2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>C(=O)(c1ccccc1C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>scheme30</t>
-  </si>
-  <si>
-    <t>tBuOK</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1F)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1Cl)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1Br)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1Br)c1cc(C)ccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1OC)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CO1)C</t>
-  </si>
-  <si>
-    <t>scheme32</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CO1)CCCCC</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CS1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CO1)CCCC=C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CSC=C1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CS1)C</t>
-  </si>
-  <si>
-    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CN=CC=C1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=NC=C1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1CC1)C</t>
-  </si>
-  <si>
-    <t>scheme33</t>
-  </si>
-  <si>
-    <t>C(=O)(C1CCCCC1)C</t>
-  </si>
-  <si>
-    <t>scheme34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R)-XylBINAP/(R)-DAIPEN Ru </t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)C)C</t>
-  </si>
-  <si>
-    <t>scheme36</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)c1ccccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C(C)NC)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(C(C)NC(=O)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>O=C(CNC(C1=CC=CC=C1)=O)c2ccccc2</t>
-  </si>
-  <si>
-    <t>c1ccccc1OCN(C)CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CC(C)(C)OC(=O)N(C)CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
-  </si>
-  <si>
-    <t>scheme37</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)CCN(C)C</t>
-  </si>
-  <si>
-    <t>scheme38</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
-  </si>
-  <si>
-    <t>C(=O)(COc1ccccc1)C</t>
-  </si>
-  <si>
-    <t>scheme39</t>
-  </si>
-  <si>
-    <t>C(=O)(C(OC)OC)C</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(C(OCC)OCC)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/c1ccccc1)C</t>
-  </si>
-  <si>
-    <t>scheme40</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/c1ccccc1)C(C)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/CCCCC)C</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/C)CC(C)C</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/C1=C(C)CCCC1(C)(C))C</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/C1=SC=CC1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C=C(C)C)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CCCCC1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=Cc2c(OC)ccc(OC)c2CC1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CCCCCC1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=C(C)CCC1)C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -378,6 +403,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -399,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -512,13 +543,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -556,6 +641,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1718,26 +1824,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="82" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1864,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.5" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1769,6 +1875,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="6">
+        <f>50+C2/2</f>
         <v>99.5</v>
       </c>
       <c r="E2" s="6">
@@ -1781,7 +1888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.25" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1791,7 +1898,8 @@
       <c r="C3" s="10">
         <v>99</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D66" si="0">50+C3/2</f>
         <v>99.5</v>
       </c>
       <c r="E3" s="10">
@@ -1800,7 +1908,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.25" customHeight="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1810,7 +1918,8 @@
       <c r="C4" s="10">
         <v>99</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E4" s="10">
@@ -1819,7 +1928,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.25" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1829,7 +1938,8 @@
       <c r="C5" s="10">
         <v>96</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="E5" s="10">
@@ -1838,7 +1948,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.25" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1848,7 +1958,8 @@
       <c r="C6" s="10">
         <v>99</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E6" s="10">
@@ -1857,7 +1968,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.25" customHeight="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1867,7 +1978,8 @@
       <c r="C7" s="10">
         <v>97</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
       <c r="E7" s="10">
@@ -1876,7 +1988,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.25" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1886,7 +1998,8 @@
       <c r="C8" s="10">
         <v>98</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E8" s="10">
@@ -1895,7 +2008,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.25" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1905,7 +2018,8 @@
       <c r="C9" s="10">
         <v>96</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="E9" s="10">
@@ -1914,7 +2028,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.25" customHeight="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1924,7 +2038,8 @@
       <c r="C10" s="10">
         <v>99</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E10" s="10">
@@ -1933,7 +2048,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.25" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1943,7 +2058,8 @@
       <c r="C11" s="10">
         <v>92</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="E11" s="10">
@@ -1952,7 +2068,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.25" customHeight="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1962,7 +2078,8 @@
       <c r="C12" s="10">
         <v>98</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E12" s="10">
@@ -1971,7 +2088,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.25" customHeight="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1981,7 +2098,8 @@
       <c r="C13" s="10">
         <v>100</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E13" s="10">
@@ -1990,7 +2108,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.25" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2000,7 +2118,8 @@
       <c r="C14" s="10">
         <v>98</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E14" s="10">
@@ -2009,7 +2128,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.25" customHeight="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2019,7 +2138,8 @@
       <c r="C15" s="10">
         <v>99.5</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
         <v>99.75</v>
       </c>
       <c r="E15" s="10">
@@ -2028,7 +2148,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.25" customHeight="1">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2038,7 +2158,8 @@
       <c r="C16" s="10">
         <v>99</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E16" s="10">
@@ -2047,7 +2168,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.25" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2057,7 +2178,8 @@
       <c r="C17" s="10">
         <v>99</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E17" s="10">
@@ -2066,7 +2188,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.25" customHeight="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2076,7 +2198,8 @@
       <c r="C18" s="10">
         <v>98</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E18" s="10">
@@ -2085,7 +2208,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18.25" customHeight="1">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2095,7 +2218,8 @@
       <c r="C19" s="10">
         <v>98</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E19" s="10">
@@ -2104,7 +2228,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18.25" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2114,7 +2238,8 @@
       <c r="C20" s="10">
         <v>97</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
       <c r="E20" s="10">
@@ -2123,7 +2248,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.25" customHeight="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2133,7 +2258,8 @@
       <c r="C21" s="10">
         <v>97</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
       <c r="E21" s="10">
@@ -2142,7 +2268,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18.25" customHeight="1">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2152,7 +2278,8 @@
       <c r="C22" s="10">
         <v>99.6</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
       <c r="E22" s="10">
@@ -2161,7 +2288,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18.25" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2171,7 +2298,8 @@
       <c r="C23" s="10">
         <v>99</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E23" s="10">
@@ -2180,7 +2308,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18.25" customHeight="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2190,7 +2318,8 @@
       <c r="C24" s="10">
         <v>99.6</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
       <c r="E24" s="10">
@@ -2199,7 +2328,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18.25" customHeight="1">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2209,7 +2338,8 @@
       <c r="C25" s="10">
         <v>100</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E25" s="10">
@@ -2218,7 +2348,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18.25" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2228,7 +2358,8 @@
       <c r="C26" s="10">
         <v>99</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E26" s="10">
@@ -2237,7 +2368,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.25" customHeight="1">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2247,7 +2378,8 @@
       <c r="C27" s="10">
         <v>99.8</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
       <c r="E27" s="10">
@@ -2256,7 +2388,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18.25" customHeight="1">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2266,7 +2398,8 @@
       <c r="C28" s="10">
         <v>99</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E28" s="10">
@@ -2275,7 +2408,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18.25" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2285,7 +2418,8 @@
       <c r="C29" s="10">
         <v>99</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E29" s="10">
@@ -2294,7 +2428,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18.25" customHeight="1">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2304,7 +2438,8 @@
       <c r="C30" s="10">
         <v>99</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E30" s="10">
@@ -2313,7 +2448,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18.25" customHeight="1">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2323,7 +2458,8 @@
       <c r="C31" s="10">
         <v>99</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E31" s="10">
@@ -2332,7 +2468,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18.25" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2342,7 +2478,8 @@
       <c r="C32" s="10">
         <v>97</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
       <c r="E32" s="10">
@@ -2351,7 +2488,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18.25" customHeight="1">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2361,7 +2498,8 @@
       <c r="C33" s="10">
         <v>96</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="E33" s="10">
@@ -2370,7 +2508,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18.25" customHeight="1">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2380,7 +2518,8 @@
       <c r="C34" s="10">
         <v>99.5</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
         <v>99.75</v>
       </c>
       <c r="E34" s="10">
@@ -2389,7 +2528,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18.25" customHeight="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2399,7 +2538,8 @@
       <c r="C35" s="10">
         <v>98</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E35" s="10">
@@ -2408,7 +2548,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18.25" customHeight="1">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2418,7 +2558,8 @@
       <c r="C36" s="10">
         <v>99</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E36" s="10">
@@ -2427,7 +2568,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18.25" customHeight="1">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2437,7 +2578,8 @@
       <c r="C37" s="10">
         <v>-96</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E37" s="10">
@@ -2448,7 +2590,7 @@
       </c>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18.25" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2458,7 +2600,8 @@
       <c r="C38" s="10">
         <v>-94</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E38" s="10">
@@ -2467,7 +2610,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="18.25" customHeight="1">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2477,7 +2620,8 @@
       <c r="C39" s="10">
         <v>-94</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E39" s="10">
@@ -2486,7 +2630,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="18.25" customHeight="1">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2496,7 +2640,8 @@
       <c r="C40" s="10">
         <v>-96</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E40" s="10">
@@ -2505,40 +2650,42 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18.25" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>48</v>
+      <c r="B41" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="C41" s="10">
         <v>-93</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="E41" s="10">
         <v>301</v>
       </c>
       <c r="F41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" ht="18.25" customHeight="1">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="10">
         <v>-97</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E42" s="10">
@@ -2547,17 +2694,18 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="18.25" customHeight="1">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="10">
         <v>-97</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E43" s="10">
@@ -2566,17 +2714,18 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="18.25" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="10">
         <v>-96</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E44" s="10">
@@ -2585,17 +2734,18 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="18.25" customHeight="1">
       <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="10">
         <v>-98</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E45" s="10">
@@ -2604,18 +2754,19 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="18.25" customHeight="1">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="10">
         <v>-99.4</v>
       </c>
-      <c r="D46" s="10">
-        <v>0.3</v>
+      <c r="D46" s="6">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999716</v>
       </c>
       <c r="E46" s="10">
         <v>301</v>
@@ -2623,38 +2774,40 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="18.25" customHeight="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="10">
         <v>99</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E47" s="10">
         <v>301</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="18.25" customHeight="1">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="10">
         <v>98</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E48" s="10">
@@ -2663,17 +2816,18 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="18.25" customHeight="1">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="10">
         <v>99</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="6">
+        <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
       <c r="E49" s="10">
@@ -2682,17 +2836,18 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18.25" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="10">
         <v>97</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="6">
+        <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
       <c r="E50" s="10">
@@ -2701,17 +2856,18 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="18.25" customHeight="1">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="10">
         <v>99.7</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="6">
+        <f t="shared" si="0"/>
         <v>99.85</v>
       </c>
       <c r="E51" s="10">
@@ -2720,17 +2876,18 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="18.25" customHeight="1">
       <c r="A52" s="8">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="10">
         <v>96</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="6">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="E52" s="10">
@@ -2739,17 +2896,18 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="18.25" customHeight="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="10">
         <v>98</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="E53" s="10">
@@ -2758,17 +2916,18 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="18.25" customHeight="1">
       <c r="A54" s="8">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="10">
         <v>96</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="6">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="E54" s="10">
@@ -2777,17 +2936,18 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="18.25" customHeight="1">
       <c r="A55" s="8">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="10">
         <v>99.6</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="6">
+        <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
       <c r="E55" s="10">
@@ -2796,17 +2956,18 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="18.25" customHeight="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="10">
         <v>99.8</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="6">
+        <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
       <c r="E56" s="10">
@@ -2815,17 +2976,18 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="18.25" customHeight="1">
       <c r="A57" s="8">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="10">
         <v>94</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="6">
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="E57" s="10">
@@ -2834,84 +2996,88 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="18.25" customHeight="1">
       <c r="A58" s="8">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="10">
         <v>95</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="6">
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="E58" s="10">
         <v>301</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="18.25" customHeight="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="10">
         <v>85</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="6">
+        <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
       <c r="E59" s="10">
         <v>301</v>
       </c>
       <c r="F59" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" ht="18.25" customHeight="1">
       <c r="A60" s="8">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="10">
         <v>92</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="6">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="E60" s="10">
         <v>301</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.25" customHeight="1">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="10">
         <v>81</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="6">
+        <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
       <c r="E61" s="10">
@@ -2919,20 +3085,21 @@
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.25" customHeight="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="10">
         <v>-93</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="6">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="E62" s="10">
@@ -2940,20 +3107,21 @@
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18.25" customHeight="1">
       <c r="A63" s="8">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="10">
         <v>-99</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E63" s="10">
@@ -2961,20 +3129,21 @@
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.25" customHeight="1">
       <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="10">
         <v>-95</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="6">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="E64" s="10">
@@ -2982,41 +3151,43 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.25" customHeight="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="10">
         <v>-99.8</v>
       </c>
-      <c r="D65" s="10">
-        <v>0.1</v>
+      <c r="D65" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
       </c>
       <c r="E65" s="10">
         <v>301</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.25" customHeight="1">
       <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="10">
         <v>-99</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E66" s="10">
@@ -3024,64 +3195,67 @@
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.25" customHeight="1">
       <c r="A67" s="8">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="10">
         <v>-97</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="6">
+        <f t="shared" ref="D67:D86" si="1">50+C67/2</f>
         <v>1.5</v>
       </c>
       <c r="E67" s="10">
         <v>301</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18.25" customHeight="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="10">
         <v>97.5</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="6">
+        <f t="shared" si="1"/>
         <v>98.75</v>
       </c>
       <c r="E68" s="10">
         <v>301</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="18.25" customHeight="1">
       <c r="A69" s="8">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C69" s="10">
         <v>92</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="6">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="E69" s="10">
@@ -3090,17 +3264,18 @@
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="18.25" customHeight="1">
       <c r="A70" s="8">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="10">
         <v>99</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="6">
+        <f t="shared" si="1"/>
         <v>99.5</v>
       </c>
       <c r="E70" s="10">
@@ -3109,40 +3284,42 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="18.25" customHeight="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" s="10">
         <v>80</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="6">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="E71" s="10">
         <v>301</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.25" customHeight="1">
       <c r="A72" s="8">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="10">
         <v>98</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="6">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="E72" s="10">
@@ -3151,17 +3328,18 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="18.25" customHeight="1">
       <c r="A73" s="8">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="10">
         <v>-95</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="6">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="E73" s="10">
@@ -3170,17 +3348,18 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="18.25" customHeight="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="10">
         <v>-37</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="6">
+        <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
       <c r="E74" s="10">
@@ -3189,38 +3368,40 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="18.25" customHeight="1">
       <c r="A75" s="8">
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="10">
         <v>97</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="6">
+        <f t="shared" si="1"/>
         <v>98.5</v>
       </c>
       <c r="E75" s="10">
         <v>301</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="18.25" customHeight="1">
       <c r="A76" s="8">
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="10">
         <v>86</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="6">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="E76" s="10">
@@ -3229,17 +3410,18 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="18.25" customHeight="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="10">
         <v>42</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="6">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="E77" s="10">
@@ -3248,17 +3430,18 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="18.25" customHeight="1">
       <c r="A78" s="8">
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="10">
         <v>97</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="6">
+        <f t="shared" si="1"/>
         <v>98.5</v>
       </c>
       <c r="E78" s="10">
@@ -3267,17 +3450,18 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="18.25" customHeight="1">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="10">
         <v>90</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="6">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="E79" s="10">
@@ -3286,17 +3470,18 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="18.25" customHeight="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="10">
         <v>94</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="6">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="E80" s="10">
@@ -3305,17 +3490,18 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="18.25" customHeight="1">
       <c r="A81" s="8">
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="10">
         <v>91</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="6">
+        <f t="shared" si="1"/>
         <v>95.5</v>
       </c>
       <c r="E81" s="10">
@@ -3324,17 +3510,18 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="18.25" customHeight="1">
       <c r="A82" s="8">
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="10">
         <v>93</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="6">
+        <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
       <c r="E82" s="10">
@@ -3343,17 +3530,18 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="18.25" customHeight="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="10">
         <v>100</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E83" s="10">
@@ -3362,17 +3550,18 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="18.25" customHeight="1">
       <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="10">
         <v>94</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="6">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="E84" s="10">
@@ -3381,17 +3570,18 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="18.25" customHeight="1">
       <c r="A85" s="8">
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="10">
         <v>99</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="6">
+        <f t="shared" si="1"/>
         <v>99.5</v>
       </c>
       <c r="E85" s="10">
@@ -3400,24 +3590,154 @@
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+    <row r="86" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="16">
+        <v>99</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="1"/>
+        <v>99.5</v>
+      </c>
+      <c r="E86" s="16">
+        <v>301</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" spans="1:8" ht="23" customHeight="1">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="18">
+        <v>70</v>
+      </c>
+      <c r="D87" s="6">
+        <f>50+C87/2</f>
+        <v>85</v>
+      </c>
+      <c r="E87" s="18"/>
+      <c r="F87" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="10">
+    </row>
+    <row r="88" spans="1:8" ht="23" customHeight="1">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="18">
         <v>99</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D88" s="18">
+        <f>50+C88/2</f>
         <v>99.5</v>
       </c>
-      <c r="E86" s="10">
-        <v>301</v>
-      </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" ht="23" customHeight="1">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" ht="23" customHeight="1">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" ht="23" customHeight="1">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" ht="23" customHeight="1">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" ht="23" customHeight="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" ht="23" customHeight="1">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" ht="23" customHeight="1">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" ht="23" customHeight="1">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" spans="1:7" ht="23" customHeight="1">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+    </row>
+    <row r="98" spans="1:7" ht="23" customHeight="1">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/sampledata/Ru_sample.xlsx
+++ b/sampledata/Ru_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F39018E-1A63-2C44-A031-061E522CEC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8D1E14-6AD1-8643-8AAC-3A9BB8D2D56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="500" windowWidth="20580" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="20580" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - Ru_cat_1127" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>entry</t>
   </si>
@@ -371,12 +371,41 @@
     <t>C(=O)(c1ncccc1)c1ccccc1</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/ol9904139</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(F)(F)(F))cc1)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://pubs.rsc.org/en/content/articlelanding/2022/cc/d2cc03701g</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/ol0360795</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tet.2008.06.104</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -407,7 +436,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -598,12 +632,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -664,8 +701,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1827,7 +1871,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -3611,7 +3655,9 @@
       <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:8" ht="23" customHeight="1">
-      <c r="A87" s="18"/>
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
       <c r="B87" s="19" t="s">
         <v>107</v>
       </c>
@@ -3622,7 +3668,9 @@
         <f>50+C87/2</f>
         <v>85</v>
       </c>
-      <c r="E87" s="18"/>
+      <c r="E87" s="16">
+        <v>301</v>
+      </c>
       <c r="F87" s="19" t="s">
         <v>105</v>
       </c>
@@ -3634,7 +3682,9 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="23" customHeight="1">
-      <c r="A88" s="18"/>
+      <c r="A88" s="14">
+        <v>87</v>
+      </c>
       <c r="B88" s="19" t="s">
         <v>107</v>
       </c>
@@ -3645,43 +3695,92 @@
         <f>50+C88/2</f>
         <v>99.5</v>
       </c>
-      <c r="E88" s="18"/>
+      <c r="E88" s="16">
+        <v>301</v>
+      </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
+      <c r="H88" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="23" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
+      <c r="A89" s="18">
+        <v>88</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="18">
+        <v>-8</v>
+      </c>
+      <c r="D89" s="18">
+        <f t="shared" ref="D89:D92" si="2">50+C89/2</f>
+        <v>46</v>
+      </c>
+      <c r="E89" s="16">
+        <v>301</v>
+      </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:8" ht="23" customHeight="1">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
+      <c r="A90" s="14">
+        <v>89</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="18">
+        <v>-35</v>
+      </c>
+      <c r="D90" s="18">
+        <f t="shared" si="2"/>
+        <v>32.5</v>
+      </c>
+      <c r="E90" s="16">
+        <v>301</v>
+      </c>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
     </row>
     <row r="91" spans="1:8" ht="23" customHeight="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
+      <c r="A91" s="18">
+        <v>90</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="18">
+        <v>9</v>
+      </c>
+      <c r="D91" s="18">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+      <c r="E91" s="16">
+        <v>301</v>
+      </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:8" ht="23" customHeight="1">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
+      <c r="A92" s="14">
+        <v>91</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="18">
+        <v>47</v>
+      </c>
+      <c r="D92" s="18">
+        <f t="shared" si="2"/>
+        <v>73.5</v>
+      </c>
+      <c r="E92" s="16">
+        <v>301</v>
+      </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
     </row>
@@ -3693,6 +3792,9 @@
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
+      <c r="H93" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="23" customHeight="1">
       <c r="A94" s="18"/>
@@ -3702,6 +3804,9 @@
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
+      <c r="H94" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="23" customHeight="1">
       <c r="A95" s="18"/>
@@ -3711,6 +3816,9 @@
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
+      <c r="H95" s="21" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="23" customHeight="1">
       <c r="A96" s="18"/>
@@ -3743,6 +3851,8 @@
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H88" r:id="rId2" xr:uid="{6DB5DB61-2813-1F49-B2E5-0A3F79B68F74}"/>
+    <hyperlink ref="H95" r:id="rId3" tooltip="Persistent link using digital object identifier" xr:uid="{98AFF666-45A1-274E-8696-057A8E9E94AA}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/sampledata/Ru_sample.xlsx
+++ b/sampledata/Ru_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8D1E14-6AD1-8643-8AAC-3A9BB8D2D56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE174094-41A1-A142-BED5-081E566B7522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="20580" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13960" yWindow="500" windowWidth="25120" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - Ru_cat_1127" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
   <si>
     <t>entry</t>
   </si>
@@ -357,9 +357,6 @@
     <t>C(=O)(C1=C(C)CCC1)C</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0040402008012374?via%3Dihub</t>
-  </si>
-  <si>
     <t>table2</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -372,40 +369,135 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>https://pubs.acs.org/doi/epdf/10.1021/ol9904139</t>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040402008012374?via%3Dihub</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
+    <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
+    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
+    <t>C(=O)(c1cnccc1)c1ccccc1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C(=O)(c1ccc(C(F)(F)(F))cc1)c1ccccc1</t>
+    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>https://pubs.rsc.org/en/content/articlelanding/2022/cc/d2cc03701g</t>
+    <t>C(=O)(c1ccncc1)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>https://pubs.acs.org/doi/epdf/10.1021/ol0360795</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.tet.2008.06.104</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccc(C)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O=C(c2nccc3ccccc23)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>table1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C(=O)(C2=CSC=(C)N2)c1cccc1</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -436,12 +528,21 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -464,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -631,6 +732,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -640,7 +828,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -648,9 +836,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,11 +886,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1868,10 +2083,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -1887,7 +2102,7 @@
     <col min="9" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" customHeight="1">
+    <row r="1" spans="1:8" ht="18.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1906,1953 +2121,2417 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.5" customHeight="1">
-      <c r="A2" s="4">
+      <c r="G1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.5" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>99</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>50+C2/2</f>
         <v>99.5</v>
       </c>
-      <c r="E2" s="6">
-        <v>301</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5">
+        <v>301</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>99</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D66" si="0">50+C3/2</f>
         <v>99.5</v>
       </c>
-      <c r="E3" s="10">
-        <v>301</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A4" s="8">
+      <c r="E3" s="9">
+        <v>301</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>99</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E4" s="10">
-        <v>301</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="E4" s="9">
+        <v>301</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>96</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E5" s="10">
-        <v>301</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A6" s="8">
+      <c r="E5" s="9">
+        <v>301</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>99</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E6" s="10">
-        <v>301</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A7" s="8">
+      <c r="E6" s="9">
+        <v>301</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>97</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
-      <c r="E7" s="10">
-        <v>301</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A8" s="4">
+      <c r="E7" s="9">
+        <v>301</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>98</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E8" s="10">
-        <v>301</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A9" s="8">
+      <c r="E8" s="9">
+        <v>301</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>96</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E9" s="10">
-        <v>301</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A10" s="8">
+      <c r="E9" s="9">
+        <v>301</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>99</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E10" s="10">
-        <v>301</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A11" s="4">
+      <c r="E10" s="9">
+        <v>301</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>92</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="E11" s="10">
-        <v>301</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A12" s="8">
+      <c r="E11" s="9">
+        <v>301</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>98</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E12" s="10">
-        <v>301</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A13" s="8">
+      <c r="E12" s="9">
+        <v>301</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>100</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E13" s="10">
-        <v>301</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A14" s="4">
+      <c r="E13" s="9">
+        <v>301</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>98</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E14" s="10">
-        <v>301</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A15" s="8">
+      <c r="E14" s="9">
+        <v>301</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>99.5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>99.75</v>
       </c>
-      <c r="E15" s="10">
-        <v>301</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A16" s="8">
+      <c r="E15" s="9">
+        <v>301</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>99</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E16" s="10">
-        <v>301</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A17" s="4">
+      <c r="E16" s="9">
+        <v>301</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>99</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E17" s="10">
-        <v>301</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A18" s="8">
+      <c r="E17" s="9">
+        <v>301</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>98</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E18" s="10">
-        <v>301</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A19" s="8">
+      <c r="E18" s="9">
+        <v>301</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>98</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E19" s="10">
-        <v>301</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A20" s="4">
+      <c r="E19" s="9">
+        <v>301</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>97</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
-      <c r="E20" s="10">
-        <v>301</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A21" s="8">
+      <c r="E20" s="9">
+        <v>301</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>97</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
-      <c r="E21" s="10">
-        <v>301</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A22" s="8">
+      <c r="E21" s="9">
+        <v>301</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>99.6</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
-      <c r="E22" s="10">
-        <v>301</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A23" s="4">
+      <c r="E22" s="9">
+        <v>301</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>99</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E23" s="10">
-        <v>301</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A24" s="8">
+      <c r="E23" s="9">
+        <v>301</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>99.6</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
-      <c r="E24" s="10">
-        <v>301</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A25" s="8">
+      <c r="E24" s="9">
+        <v>301</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>100</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E25" s="10">
-        <v>301</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A26" s="4">
+      <c r="E25" s="9">
+        <v>301</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>99</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E26" s="10">
-        <v>301</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A27" s="8">
+      <c r="E26" s="9">
+        <v>301</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>99.8</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
-      <c r="E27" s="10">
-        <v>301</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A28" s="8">
+      <c r="E27" s="9">
+        <v>301</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>99</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E28" s="10">
-        <v>301</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A29" s="4">
+      <c r="E28" s="9">
+        <v>301</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>99</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E29" s="10">
-        <v>301</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A30" s="8">
+      <c r="E29" s="9">
+        <v>301</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>99</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E30" s="10">
-        <v>301</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A31" s="8">
+      <c r="E30" s="9">
+        <v>301</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>99</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E31" s="10">
-        <v>301</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A32" s="4">
+      <c r="E31" s="9">
+        <v>301</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>97</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
-      <c r="E32" s="10">
-        <v>301</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A33" s="8">
+      <c r="E32" s="9">
+        <v>301</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>96</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E33" s="10">
-        <v>301</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A34" s="8">
+      <c r="E33" s="9">
+        <v>301</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>99.5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <f t="shared" si="0"/>
         <v>99.75</v>
       </c>
-      <c r="E34" s="10">
-        <v>301</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A35" s="4">
+      <c r="E34" s="9">
+        <v>301</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>98</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E35" s="10">
-        <v>301</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A36" s="8">
+      <c r="E35" s="9">
+        <v>301</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>99</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E36" s="10">
-        <v>301</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A37" s="8">
+      <c r="E36" s="9">
+        <v>301</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>-96</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E37" s="10">
-        <v>301</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="9">
+        <v>301</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A38" s="4">
+      <c r="G37" s="21"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>-94</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E38" s="10">
-        <v>301</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A39" s="8">
+      <c r="E38" s="9">
+        <v>301</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>-94</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E39" s="10">
-        <v>301</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A40" s="8">
+      <c r="E39" s="9">
+        <v>301</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>-96</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E40" s="10">
-        <v>301</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A41" s="4">
+      <c r="E40" s="9">
+        <v>301</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="10">
+      <c r="B41" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="9">
         <v>-93</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="E41" s="10">
-        <v>301</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="9">
+        <v>301</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A42" s="8">
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>-97</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="E42" s="10">
-        <v>301</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A43" s="8">
+      <c r="E42" s="9">
+        <v>301</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>-97</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="E43" s="10">
-        <v>301</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A44" s="4">
+      <c r="E43" s="9">
+        <v>301</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>-96</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E44" s="10">
-        <v>301</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A45" s="8">
+      <c r="E44" s="9">
+        <v>301</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>-98</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E45" s="10">
-        <v>301</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A46" s="8">
+      <c r="E45" s="9">
+        <v>301</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>-99.4</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <f t="shared" si="0"/>
         <v>0.29999999999999716</v>
       </c>
-      <c r="E46" s="10">
-        <v>301</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A47" s="4">
+      <c r="E46" s="9">
+        <v>301</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>99</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E47" s="10">
-        <v>301</v>
-      </c>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="9">
+        <v>301</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A48" s="8">
+      <c r="G47" s="21"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>98</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E48" s="10">
-        <v>301</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A49" s="8">
+      <c r="E48" s="9">
+        <v>301</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>99</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
-      <c r="E49" s="10">
-        <v>301</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A50" s="4">
+      <c r="E49" s="9">
+        <v>301</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>97</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
-      <c r="E50" s="10">
-        <v>301</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A51" s="8">
+      <c r="E50" s="9">
+        <v>301</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>99.7</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <f t="shared" si="0"/>
         <v>99.85</v>
       </c>
-      <c r="E51" s="10">
-        <v>301</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A52" s="8">
+      <c r="E51" s="9">
+        <v>301</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>96</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E52" s="10">
-        <v>301</v>
-      </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A53" s="4">
+      <c r="E52" s="9">
+        <v>301</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>98</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E53" s="10">
-        <v>301</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A54" s="8">
+      <c r="E53" s="9">
+        <v>301</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>96</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="E54" s="10">
-        <v>301</v>
-      </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A55" s="8">
+      <c r="E54" s="9">
+        <v>301</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>99.6</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
-      <c r="E55" s="10">
-        <v>301</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A56" s="4">
+      <c r="E55" s="9">
+        <v>301</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>99.8</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
-      <c r="E56" s="10">
-        <v>301</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A57" s="8">
+      <c r="E56" s="9">
+        <v>301</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>94</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="E57" s="10">
-        <v>301</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A58" s="8">
+      <c r="E57" s="9">
+        <v>301</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>95</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
-      <c r="E58" s="10">
-        <v>301</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="E58" s="9">
+        <v>301</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A59" s="4">
+      <c r="G58" s="21"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>85</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="E59" s="10">
-        <v>301</v>
-      </c>
-      <c r="F59" s="12" t="s">
+      <c r="E59" s="9">
+        <v>301</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A60" s="8">
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>92</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="E60" s="10">
-        <v>301</v>
-      </c>
-      <c r="F60" s="12" t="s">
+      <c r="E60" s="9">
+        <v>301</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A61" s="8">
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>81</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
-      <c r="E61" s="10">
-        <v>301</v>
-      </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12" t="s">
+      <c r="E61" s="9">
+        <v>301</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A62" s="4">
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>-93</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="E62" s="10">
-        <v>301</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12" t="s">
+      <c r="E62" s="9">
+        <v>301</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A63" s="8">
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>-99</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E63" s="10">
-        <v>301</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12" t="s">
+      <c r="E63" s="9">
+        <v>301</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A64" s="8">
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>-95</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E64" s="10">
-        <v>301</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12" t="s">
+      <c r="E64" s="9">
+        <v>301</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A65" s="4">
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>-99.8</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <f t="shared" si="0"/>
         <v>0.10000000000000142</v>
       </c>
-      <c r="E65" s="10">
-        <v>301</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12" t="s">
+      <c r="E65" s="9">
+        <v>301</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A66" s="8">
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>-99</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E66" s="10">
-        <v>301</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12" t="s">
+      <c r="E66" s="9">
+        <v>301</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A67" s="8">
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>-97</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <f t="shared" ref="D67:D86" si="1">50+C67/2</f>
         <v>1.5</v>
       </c>
-      <c r="E67" s="10">
-        <v>301</v>
-      </c>
-      <c r="F67" s="12" t="s">
+      <c r="E67" s="9">
+        <v>301</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="G67" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A68" s="4">
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>97.5</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <f t="shared" si="1"/>
         <v>98.75</v>
       </c>
-      <c r="E68" s="10">
-        <v>301</v>
-      </c>
-      <c r="F68" s="12" t="s">
+      <c r="E68" s="9">
+        <v>301</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A69" s="8">
+      <c r="G68" s="21"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="9">
         <v>92</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="E69" s="10">
-        <v>301</v>
-      </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A70" s="8">
+      <c r="E69" s="9">
+        <v>301</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="9">
         <v>99</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <f t="shared" si="1"/>
         <v>99.5</v>
       </c>
-      <c r="E70" s="10">
-        <v>301</v>
-      </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A71" s="4">
+      <c r="E70" s="9">
+        <v>301</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="9">
         <v>80</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="E71" s="10">
-        <v>301</v>
-      </c>
-      <c r="F71" s="12" t="s">
+      <c r="E71" s="9">
+        <v>301</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A72" s="8">
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>98</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="E72" s="10">
-        <v>301</v>
-      </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A73" s="8">
+      <c r="E72" s="9">
+        <v>301</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="9">
         <v>-95</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="E73" s="10">
-        <v>301</v>
-      </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A74" s="4">
+      <c r="E73" s="9">
+        <v>301</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="9">
         <v>-37</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
-      <c r="E74" s="10">
-        <v>301</v>
-      </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A75" s="8">
+      <c r="E74" s="9">
+        <v>301</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <v>97</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <f t="shared" si="1"/>
         <v>98.5</v>
       </c>
-      <c r="E75" s="10">
-        <v>301</v>
-      </c>
-      <c r="F75" s="12" t="s">
+      <c r="E75" s="9">
+        <v>301</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A76" s="8">
+      <c r="G75" s="21"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <v>86</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="E76" s="10">
-        <v>301</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A77" s="4">
+      <c r="E76" s="9">
+        <v>301</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <v>42</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="E77" s="10">
-        <v>301</v>
-      </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A78" s="8">
+      <c r="E77" s="9">
+        <v>301</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <v>97</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <f t="shared" si="1"/>
         <v>98.5</v>
       </c>
-      <c r="E78" s="10">
-        <v>301</v>
-      </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A79" s="8">
+      <c r="E78" s="9">
+        <v>301</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <v>90</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E79" s="10">
-        <v>301</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" ht="18.25" customHeight="1">
-      <c r="A80" s="4">
+      <c r="E79" s="9">
+        <v>301</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.25" customHeight="1">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="9">
         <v>94</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="E80" s="10">
-        <v>301</v>
-      </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="E80" s="9">
+        <v>301</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8" ht="18.25" customHeight="1">
-      <c r="A81" s="8">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="9">
         <v>91</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <f t="shared" si="1"/>
         <v>95.5</v>
       </c>
-      <c r="E81" s="10">
-        <v>301</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="E81" s="9">
+        <v>301</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8" ht="18.25" customHeight="1">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="9">
         <v>93</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
-      <c r="E82" s="10">
-        <v>301</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="E82" s="9">
+        <v>301</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8" ht="18.25" customHeight="1">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>100</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E83" s="10">
-        <v>301</v>
-      </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="E83" s="9">
+        <v>301</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="1:8" ht="18.25" customHeight="1">
-      <c r="A84" s="8">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="9">
         <v>94</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="E84" s="10">
-        <v>301</v>
-      </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="E84" s="9">
+        <v>301</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" spans="1:8" ht="18.25" customHeight="1">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="9">
         <v>99</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <f t="shared" si="1"/>
         <v>99.5</v>
       </c>
-      <c r="E85" s="10">
-        <v>301</v>
-      </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="E85" s="9">
+        <v>301</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:8" ht="18.25" customHeight="1">
-      <c r="A86" s="14">
+      <c r="A86" s="13">
         <v>85</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="15">
         <v>99</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <f t="shared" si="1"/>
         <v>99.5</v>
       </c>
-      <c r="E86" s="16">
-        <v>301</v>
-      </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="E86" s="15">
+        <v>301</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="1:8" ht="23" customHeight="1">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="17">
+        <v>-70</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" ref="D87:D106" si="2">50+C87/2</f>
+        <v>15</v>
+      </c>
+      <c r="E87" s="17">
+        <v>303</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="18">
-        <v>70</v>
-      </c>
-      <c r="D87" s="6">
-        <f>50+C87/2</f>
-        <v>85</v>
-      </c>
-      <c r="E87" s="16">
-        <v>301</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H87" s="18" t="s">
+    </row>
+    <row r="88" spans="1:8" ht="23" customHeight="1">
+      <c r="A88" s="13">
+        <v>87</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="17">
+        <v>-99</v>
+      </c>
+      <c r="D88" s="17">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E88" s="17">
+        <v>303</v>
+      </c>
+      <c r="F88" s="17"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="1:8" ht="23" customHeight="1">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="17">
+        <v>-60</v>
+      </c>
+      <c r="D89" s="17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E89" s="17">
+        <v>303</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" ht="23" customHeight="1">
+      <c r="A90" s="13">
+        <v>89</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="17">
+        <v>-50</v>
+      </c>
+      <c r="D90" s="17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E90" s="17">
+        <v>303</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="1:8" ht="23" customHeight="1">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="17">
+        <v>69</v>
+      </c>
+      <c r="D91" s="17">
+        <f t="shared" si="2"/>
+        <v>84.5</v>
+      </c>
+      <c r="E91" s="17">
+        <v>303</v>
+      </c>
+      <c r="F91" s="17"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:8" ht="23" customHeight="1">
+      <c r="A92" s="13">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="17">
+        <v>-68</v>
+      </c>
+      <c r="D92" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E92" s="17">
+        <v>303</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="1:8" ht="23" customHeight="1">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="17">
+        <v>78</v>
+      </c>
+      <c r="D93" s="17">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="E93" s="17">
+        <v>303</v>
+      </c>
+      <c r="F93" s="17"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:8" ht="23" customHeight="1">
+      <c r="A94" s="13">
+        <v>93</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="17">
+        <v>55</v>
+      </c>
+      <c r="D94" s="17">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="E94" s="17">
+        <v>303</v>
+      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:8" ht="23" customHeight="1">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="17">
+        <v>54</v>
+      </c>
+      <c r="D95" s="17">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E95" s="17">
+        <v>303</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:8" ht="23" customHeight="1">
+      <c r="A96" s="13">
+        <v>95</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="17">
+        <v>90</v>
+      </c>
+      <c r="D96" s="17">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E96" s="17">
+        <v>303</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:8" ht="23" customHeight="1">
+      <c r="A97" s="26">
+        <v>96</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="27">
+        <v>-13</v>
+      </c>
+      <c r="D97" s="27">
+        <f t="shared" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="E97" s="27">
+        <v>303</v>
+      </c>
+      <c r="F97" s="27"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="27"/>
+    </row>
+    <row r="98" spans="1:8" ht="23" customHeight="1">
+      <c r="A98" s="29">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="17">
+        <v>80</v>
+      </c>
+      <c r="D98" s="17">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E98" s="17">
+        <v>303</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:8" ht="23" customHeight="1">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="17">
+        <v>-97.5</v>
+      </c>
+      <c r="D99" s="17">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="E99" s="17">
+        <v>298</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G99" s="17"/>
+      <c r="H99" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="23" customHeight="1">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="17">
+        <v>-97</v>
+      </c>
+      <c r="D100" s="17">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="E100" s="17">
+        <v>298</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8" ht="23" customHeight="1">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="17">
+        <v>-92</v>
+      </c>
+      <c r="D101" s="17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E101" s="17">
+        <v>298</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:8" ht="23" customHeight="1">
+      <c r="A102" s="17"/>
+      <c r="B102" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="17">
+        <v>-99</v>
+      </c>
+      <c r="D102" s="17">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="17">
+        <v>298</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:8" ht="23" customHeight="1">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="17">
+        <v>-97</v>
+      </c>
+      <c r="D103" s="17">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="E103" s="17">
+        <v>298</v>
+      </c>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:8" ht="23" customHeight="1">
+      <c r="A104" s="17"/>
+      <c r="B104" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="17">
+        <v>-95</v>
+      </c>
+      <c r="D104" s="17">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E104" s="17">
+        <v>298</v>
+      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:8" ht="23" customHeight="1">
+      <c r="A105" s="17"/>
+      <c r="B105" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="17">
+        <v>-42.2</v>
+      </c>
+      <c r="D105" s="17">
+        <f t="shared" si="2"/>
+        <v>28.9</v>
+      </c>
+      <c r="E105" s="17">
+        <v>298</v>
+      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8" ht="23" customHeight="1">
+      <c r="A106" s="17"/>
+      <c r="B106" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="17">
+        <v>83.4</v>
+      </c>
+      <c r="D106" s="17">
+        <f t="shared" si="2"/>
+        <v>91.7</v>
+      </c>
+      <c r="E106" s="17">
+        <v>298</v>
+      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:8" ht="23" customHeight="1">
+      <c r="A107" s="17"/>
+      <c r="B107" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="17">
+        <v>-74.8</v>
+      </c>
+      <c r="D107" s="17">
+        <f>50+C107/2</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="E107" s="17">
+        <v>298</v>
+      </c>
+      <c r="F107" s="30" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="23" customHeight="1">
-      <c r="A88" s="14">
-        <v>87</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="18">
-        <v>99</v>
-      </c>
-      <c r="D88" s="18">
-        <f>50+C88/2</f>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8" ht="23" customHeight="1">
+      <c r="A108" s="17"/>
+      <c r="B108" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="17">
+        <v>-89.5</v>
+      </c>
+      <c r="D108" s="17">
+        <f>50+C108/2</f>
+        <v>5.25</v>
+      </c>
+      <c r="E108" s="17">
+        <v>298</v>
+      </c>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:8" ht="23" customHeight="1">
+      <c r="A109" s="17"/>
+      <c r="B109" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="17">
+        <v>-98.7</v>
+      </c>
+      <c r="D109" s="17">
+        <f>50+C109/2</f>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="E109" s="17">
+        <v>298</v>
+      </c>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:8" ht="23" customHeight="1">
+      <c r="A110" s="17"/>
+      <c r="B110" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="17">
+        <v>91.4</v>
+      </c>
+      <c r="D110" s="17">
+        <f>50+C110/2</f>
+        <v>95.7</v>
+      </c>
+      <c r="E110" s="17">
+        <v>298</v>
+      </c>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:8" ht="23" customHeight="1">
+      <c r="A111" s="17"/>
+      <c r="B111" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="17">
+        <v>94.4</v>
+      </c>
+      <c r="D111" s="17">
+        <f>50+C111/2</f>
+        <v>97.2</v>
+      </c>
+      <c r="E111" s="17">
+        <v>298</v>
+      </c>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:8" ht="23" customHeight="1">
+      <c r="A112" s="17"/>
+      <c r="B112" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="17">
+        <v>93.6</v>
+      </c>
+      <c r="D112" s="17">
+        <f>50+C112/2</f>
+        <v>96.8</v>
+      </c>
+      <c r="E112" s="17">
+        <v>298</v>
+      </c>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+    </row>
+    <row r="113" spans="1:8" ht="23" customHeight="1">
+      <c r="A113" s="17"/>
+      <c r="B113" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="17">
         <v>99.5</v>
       </c>
-      <c r="E88" s="16">
-        <v>301</v>
-      </c>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="23" customHeight="1">
-      <c r="A89" s="18">
-        <v>88</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="18">
-        <v>-8</v>
-      </c>
-      <c r="D89" s="18">
-        <f t="shared" ref="D89:D92" si="2">50+C89/2</f>
-        <v>46</v>
-      </c>
-      <c r="E89" s="16">
-        <v>301</v>
-      </c>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-    </row>
-    <row r="90" spans="1:8" ht="23" customHeight="1">
-      <c r="A90" s="14">
-        <v>89</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="18">
-        <v>-35</v>
-      </c>
-      <c r="D90" s="18">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="E90" s="16">
-        <v>301</v>
-      </c>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="1:8" ht="23" customHeight="1">
-      <c r="A91" s="18">
-        <v>90</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="18">
-        <v>9</v>
-      </c>
-      <c r="D91" s="18">
-        <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-      <c r="E91" s="16">
-        <v>301</v>
-      </c>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-    </row>
-    <row r="92" spans="1:8" ht="23" customHeight="1">
-      <c r="A92" s="14">
-        <v>91</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="18">
-        <v>47</v>
-      </c>
-      <c r="D92" s="18">
-        <f t="shared" si="2"/>
-        <v>73.5</v>
-      </c>
-      <c r="E92" s="16">
-        <v>301</v>
-      </c>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-    </row>
-    <row r="93" spans="1:8" ht="23" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="23" customHeight="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="23" customHeight="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="23" customHeight="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-    </row>
-    <row r="97" spans="1:7" ht="23" customHeight="1">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-    </row>
-    <row r="98" spans="1:7" ht="23" customHeight="1">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
+      <c r="D113" s="17">
+        <f>50+C113/2</f>
+        <v>99.75</v>
+      </c>
+      <c r="E113" s="17">
+        <v>298</v>
+      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="1:8" ht="23" customHeight="1">
+      <c r="A114" s="17"/>
+      <c r="B114" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="17">
+        <v>-88</v>
+      </c>
+      <c r="D114" s="17">
+        <f>50+C114/2</f>
+        <v>6</v>
+      </c>
+      <c r="E114" s="17">
+        <v>298</v>
+      </c>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H88" r:id="rId2" xr:uid="{6DB5DB61-2813-1F49-B2E5-0A3F79B68F74}"/>
-    <hyperlink ref="H95" r:id="rId3" tooltip="Persistent link using digital object identifier" xr:uid="{98AFF666-45A1-274E-8696-057A8E9E94AA}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H87" r:id="rId2" xr:uid="{B024412B-AFA4-5F4F-B025-58E1DF8F51BC}"/>
+    <hyperlink ref="H99" r:id="rId3" xr:uid="{32493168-649A-9042-9D2D-EA97606F33ED}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>

--- a/sampledata/Ru_sample.xlsx
+++ b/sampledata/Ru_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE174094-41A1-A142-BED5-081E566B7522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB5AAC-536F-B64C-B942-0253DBA28706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="500" windowWidth="25120" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="500" windowWidth="25120" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - Ru_cat_1127" sheetId="1" r:id="rId1"/>
@@ -536,13 +536,11 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2083,10 +2081,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -4381,7 +4379,7 @@
         <v>-74.8</v>
       </c>
       <c r="D107" s="17">
-        <f>50+C107/2</f>
+        <f t="shared" ref="D107:D114" si="3">50+C107/2</f>
         <v>12.600000000000001</v>
       </c>
       <c r="E107" s="17">
@@ -4402,7 +4400,7 @@
         <v>-89.5</v>
       </c>
       <c r="D108" s="17">
-        <f>50+C108/2</f>
+        <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
       <c r="E108" s="17">
@@ -4421,7 +4419,7 @@
         <v>-98.7</v>
       </c>
       <c r="D109" s="17">
-        <f>50+C109/2</f>
+        <f t="shared" si="3"/>
         <v>0.64999999999999858</v>
       </c>
       <c r="E109" s="17">
@@ -4440,7 +4438,7 @@
         <v>91.4</v>
       </c>
       <c r="D110" s="17">
-        <f>50+C110/2</f>
+        <f t="shared" si="3"/>
         <v>95.7</v>
       </c>
       <c r="E110" s="17">
@@ -4459,7 +4457,7 @@
         <v>94.4</v>
       </c>
       <c r="D111" s="17">
-        <f>50+C111/2</f>
+        <f t="shared" si="3"/>
         <v>97.2</v>
       </c>
       <c r="E111" s="17">
@@ -4478,7 +4476,7 @@
         <v>93.6</v>
       </c>
       <c r="D112" s="17">
-        <f>50+C112/2</f>
+        <f t="shared" si="3"/>
         <v>96.8</v>
       </c>
       <c r="E112" s="17">
@@ -4497,7 +4495,7 @@
         <v>99.5</v>
       </c>
       <c r="D113" s="17">
-        <f>50+C113/2</f>
+        <f t="shared" si="3"/>
         <v>99.75</v>
       </c>
       <c r="E113" s="17">
@@ -4516,7 +4514,7 @@
         <v>-88</v>
       </c>
       <c r="D114" s="17">
-        <f>50+C114/2</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E114" s="17">
@@ -4525,6 +4523,86 @@
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="1:8" ht="23" customHeight="1">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="1:8" ht="23" customHeight="1">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+    </row>
+    <row r="117" spans="1:8" ht="23" customHeight="1">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:8" ht="23" customHeight="1">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="1:8" ht="23" customHeight="1">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:8" ht="23" customHeight="1">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+    </row>
+    <row r="121" spans="1:8" ht="23" customHeight="1">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+    </row>
+    <row r="122" spans="1:8" ht="23" customHeight="1">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/sampledata/Ru_sample.xlsx
+++ b/sampledata/Ru_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB5AAC-536F-B64C-B942-0253DBA28706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC40859-5CEF-EE41-BA04-549586CF4A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="500" windowWidth="25120" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C(=O)(C2=CSC=(C)N2)c1cccc1</t>
+    <t>C(=O)(C2=CSC=(C)N2)c1ccccc1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2083,8 +2083,8 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>

--- a/sampledata/Ru_sample.xlsx
+++ b/sampledata/Ru_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC40859-5CEF-EE41-BA04-549586CF4A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB71D64-91E4-0F46-952A-5E00B1C7B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="500" windowWidth="25120" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C(=O)(C2=CSC=(C)N2)c1ccccc1</t>
+    <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>

--- a/sampledata/Ru_sample.xlsx
+++ b/sampledata/Ru_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB71D64-91E4-0F46-952A-5E00B1C7B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA480AA-1E0F-D546-80DB-7CFE4CA52A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="500" windowWidth="25120" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="500" windowWidth="25120" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - Ru_cat_1127" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
   <si>
     <t>entry</t>
   </si>
@@ -490,6 +490,10 @@
   </si>
   <si>
     <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(S)-XylBINAP/(S)-DAIPEN Ru </t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2081,10 +2085,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -3967,7 +3971,7 @@
         <v>-70</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" ref="D87:D106" si="2">50+C87/2</f>
+        <f t="shared" ref="D87:D105" si="2">50+C87/2</f>
         <v>15</v>
       </c>
       <c r="E87" s="17">
@@ -3984,18 +3988,18 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="23" customHeight="1">
-      <c r="A88" s="13">
-        <v>87</v>
+      <c r="A88" s="7">
+        <v>88</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C88" s="17">
-        <v>-99</v>
+        <v>-60</v>
       </c>
       <c r="D88" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E88" s="17">
         <v>303</v>
@@ -4005,18 +4009,18 @@
       <c r="H88" s="17"/>
     </row>
     <row r="89" spans="1:8" ht="23" customHeight="1">
-      <c r="A89" s="7">
-        <v>88</v>
+      <c r="A89" s="13">
+        <v>89</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="17">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="D89" s="17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E89" s="17">
         <v>303</v>
@@ -4026,18 +4030,18 @@
       <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8" ht="23" customHeight="1">
-      <c r="A90" s="13">
-        <v>89</v>
+      <c r="A90" s="7">
+        <v>90</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C90" s="17">
-        <v>-50</v>
+        <v>69</v>
       </c>
       <c r="D90" s="17">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>84.5</v>
       </c>
       <c r="E90" s="17">
         <v>303</v>
@@ -4047,18 +4051,18 @@
       <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8" ht="23" customHeight="1">
-      <c r="A91" s="7">
-        <v>90</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>110</v>
+      <c r="A91" s="13">
+        <v>91</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="C91" s="17">
-        <v>69</v>
+        <v>-68</v>
       </c>
       <c r="D91" s="17">
         <f t="shared" si="2"/>
-        <v>84.5</v>
+        <v>16</v>
       </c>
       <c r="E91" s="17">
         <v>303</v>
@@ -4068,18 +4072,18 @@
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" ht="23" customHeight="1">
-      <c r="A92" s="13">
-        <v>91</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>111</v>
+      <c r="A92" s="7">
+        <v>92</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="C92" s="17">
-        <v>-68</v>
+        <v>78</v>
       </c>
       <c r="D92" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E92" s="17">
         <v>303</v>
@@ -4089,18 +4093,18 @@
       <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8" ht="23" customHeight="1">
-      <c r="A93" s="7">
-        <v>92</v>
+      <c r="A93" s="13">
+        <v>93</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C93" s="17">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D93" s="17">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>77.5</v>
       </c>
       <c r="E93" s="17">
         <v>303</v>
@@ -4110,18 +4114,18 @@
       <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:8" ht="23" customHeight="1">
-      <c r="A94" s="13">
-        <v>93</v>
+      <c r="A94" s="7">
+        <v>94</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C94" s="17">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D94" s="17">
         <f t="shared" si="2"/>
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E94" s="17">
         <v>303</v>
@@ -4131,18 +4135,18 @@
       <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:8" ht="23" customHeight="1">
-      <c r="A95" s="7">
-        <v>94</v>
+      <c r="A95" s="13">
+        <v>95</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="17">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D95" s="17">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E95" s="17">
         <v>303</v>
@@ -4152,102 +4156,102 @@
       <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:8" ht="23" customHeight="1">
-      <c r="A96" s="13">
-        <v>95</v>
-      </c>
-      <c r="B96" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C96" s="17">
-        <v>90</v>
-      </c>
-      <c r="D96" s="17">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E96" s="17">
-        <v>303</v>
-      </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="17"/>
-    </row>
-    <row r="97" spans="1:8" ht="23" customHeight="1">
-      <c r="A97" s="26">
+      <c r="A96" s="26">
         <v>96</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B96" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C96" s="27">
         <v>-13</v>
       </c>
-      <c r="D97" s="27">
+      <c r="D96" s="27">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
-      <c r="E97" s="27">
+      <c r="E96" s="27">
         <v>303</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="27"/>
+    </row>
+    <row r="97" spans="1:8" ht="23" customHeight="1">
+      <c r="A97" s="29">
+        <v>97</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="17">
+        <v>80</v>
+      </c>
+      <c r="D97" s="17">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E97" s="17">
+        <v>303</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8" ht="23" customHeight="1">
-      <c r="A98" s="29">
-        <v>97</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>115</v>
+      <c r="A98" s="17"/>
+      <c r="B98" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="C98" s="17">
-        <v>80</v>
+        <v>-97.5</v>
       </c>
       <c r="D98" s="17">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>1.25</v>
       </c>
       <c r="E98" s="17">
-        <v>303</v>
-      </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
+        <v>298</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="23" customHeight="1">
       <c r="A99" s="17"/>
       <c r="B99" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C99" s="17">
-        <v>-97.5</v>
+        <v>-97</v>
       </c>
       <c r="D99" s="17">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E99" s="17">
         <v>298</v>
       </c>
-      <c r="F99" s="30" t="s">
-        <v>128</v>
-      </c>
+      <c r="F99" s="17"/>
       <c r="G99" s="17"/>
-      <c r="H99" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" ht="23" customHeight="1">
       <c r="A100" s="17"/>
       <c r="B100" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" s="17">
-        <v>-97</v>
+        <v>-92</v>
       </c>
       <c r="D100" s="17">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E100" s="17">
         <v>298</v>
@@ -4259,14 +4263,14 @@
     <row r="101" spans="1:8" ht="23" customHeight="1">
       <c r="A101" s="17"/>
       <c r="B101" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101" s="17">
-        <v>-92</v>
+        <v>-99</v>
       </c>
       <c r="D101" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E101" s="17">
         <v>298</v>
@@ -4278,14 +4282,14 @@
     <row r="102" spans="1:8" ht="23" customHeight="1">
       <c r="A102" s="17"/>
       <c r="B102" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102" s="17">
-        <v>-99</v>
+        <v>-97</v>
       </c>
       <c r="D102" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E102" s="17">
         <v>298</v>
@@ -4297,14 +4301,14 @@
     <row r="103" spans="1:8" ht="23" customHeight="1">
       <c r="A103" s="17"/>
       <c r="B103" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C103" s="17">
-        <v>-97</v>
+        <v>-95</v>
       </c>
       <c r="D103" s="17">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E103" s="17">
         <v>298</v>
@@ -4316,14 +4320,14 @@
     <row r="104" spans="1:8" ht="23" customHeight="1">
       <c r="A104" s="17"/>
       <c r="B104" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C104" s="17">
-        <v>-95</v>
+        <v>-42.2</v>
       </c>
       <c r="D104" s="17">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>28.9</v>
       </c>
       <c r="E104" s="17">
         <v>298</v>
@@ -4335,14 +4339,14 @@
     <row r="105" spans="1:8" ht="23" customHeight="1">
       <c r="A105" s="17"/>
       <c r="B105" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C105" s="17">
-        <v>-42.2</v>
+        <v>83.4</v>
       </c>
       <c r="D105" s="17">
         <f t="shared" si="2"/>
-        <v>28.9</v>
+        <v>91.7</v>
       </c>
       <c r="E105" s="17">
         <v>298</v>
@@ -4354,54 +4358,56 @@
     <row r="106" spans="1:8" ht="23" customHeight="1">
       <c r="A106" s="17"/>
       <c r="B106" s="18" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C106" s="17">
-        <v>83.4</v>
+        <v>-74.8</v>
       </c>
       <c r="D106" s="17">
-        <f t="shared" si="2"/>
-        <v>91.7</v>
+        <f t="shared" ref="D106:D113" si="3">50+C106/2</f>
+        <v>12.600000000000001</v>
       </c>
       <c r="E106" s="17">
         <v>298</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
+      <c r="F106" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="H106" s="17"/>
     </row>
     <row r="107" spans="1:8" ht="23" customHeight="1">
       <c r="A107" s="17"/>
       <c r="B107" s="18" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C107" s="17">
-        <v>-74.8</v>
+        <v>-89.5</v>
       </c>
       <c r="D107" s="17">
-        <f t="shared" ref="D107:D114" si="3">50+C107/2</f>
-        <v>12.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>5.25</v>
       </c>
       <c r="E107" s="17">
         <v>298</v>
       </c>
-      <c r="F107" s="30" t="s">
-        <v>104</v>
-      </c>
+      <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
     </row>
     <row r="108" spans="1:8" ht="23" customHeight="1">
       <c r="A108" s="17"/>
       <c r="B108" s="18" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C108" s="17">
-        <v>-89.5</v>
+        <v>-98.7</v>
       </c>
       <c r="D108" s="17">
         <f t="shared" si="3"/>
-        <v>5.25</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="E108" s="17">
         <v>298</v>
@@ -4412,15 +4418,15 @@
     </row>
     <row r="109" spans="1:8" ht="23" customHeight="1">
       <c r="A109" s="17"/>
-      <c r="B109" s="18" t="s">
-        <v>108</v>
+      <c r="B109" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="C109" s="17">
-        <v>-98.7</v>
+        <v>91.4</v>
       </c>
       <c r="D109" s="17">
         <f t="shared" si="3"/>
-        <v>0.64999999999999858</v>
+        <v>95.7</v>
       </c>
       <c r="E109" s="17">
         <v>298</v>
@@ -4431,15 +4437,15 @@
     </row>
     <row r="110" spans="1:8" ht="23" customHeight="1">
       <c r="A110" s="17"/>
-      <c r="B110" s="30" t="s">
-        <v>124</v>
+      <c r="B110" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="C110" s="17">
-        <v>91.4</v>
+        <v>94.4</v>
       </c>
       <c r="D110" s="17">
         <f t="shared" si="3"/>
-        <v>95.7</v>
+        <v>97.2</v>
       </c>
       <c r="E110" s="17">
         <v>298</v>
@@ -4451,14 +4457,14 @@
     <row r="111" spans="1:8" ht="23" customHeight="1">
       <c r="A111" s="17"/>
       <c r="B111" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C111" s="17">
-        <v>94.4</v>
+        <v>93.6</v>
       </c>
       <c r="D111" s="17">
         <f t="shared" si="3"/>
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="E111" s="17">
         <v>298</v>
@@ -4470,14 +4476,14 @@
     <row r="112" spans="1:8" ht="23" customHeight="1">
       <c r="A112" s="17"/>
       <c r="B112" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C112" s="17">
-        <v>93.6</v>
+        <v>99.5</v>
       </c>
       <c r="D112" s="17">
         <f t="shared" si="3"/>
-        <v>96.8</v>
+        <v>99.75</v>
       </c>
       <c r="E112" s="17">
         <v>298</v>
@@ -4488,38 +4494,31 @@
     </row>
     <row r="113" spans="1:8" ht="23" customHeight="1">
       <c r="A113" s="17"/>
-      <c r="B113" s="18" t="s">
-        <v>126</v>
+      <c r="B113" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C113" s="17">
-        <v>99.5</v>
+        <v>-88</v>
       </c>
       <c r="D113" s="17">
         <f t="shared" si="3"/>
-        <v>99.75</v>
+        <v>6</v>
       </c>
       <c r="E113" s="17">
         <v>298</v>
       </c>
       <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
+      <c r="G113" s="22" t="s">
+        <v>138</v>
+      </c>
       <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8" ht="23" customHeight="1">
       <c r="A114" s="17"/>
-      <c r="B114" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C114" s="17">
-        <v>-88</v>
-      </c>
-      <c r="D114" s="17">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E114" s="17">
-        <v>298</v>
-      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
@@ -4594,22 +4593,12 @@
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
     </row>
-    <row r="122" spans="1:8" ht="23" customHeight="1">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H87" r:id="rId2" xr:uid="{B024412B-AFA4-5F4F-B025-58E1DF8F51BC}"/>
-    <hyperlink ref="H99" r:id="rId3" xr:uid="{32493168-649A-9042-9D2D-EA97606F33ED}"/>
+    <hyperlink ref="H98" r:id="rId3" xr:uid="{32493168-649A-9042-9D2D-EA97606F33ED}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
